--- a/% Filled vs Attendance Polarity.xlsx
+++ b/% Filled vs Attendance Polarity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Syllabus Review Project 7-14\syllabus-review-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C49484E-C2C2-4D51-8E3E-2933CADE6E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDCAB90-AE55-4A96-90A1-DC2A010231A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Index</t>
   </si>
@@ -43,84 +43,15 @@
   <si>
     <t>Polarity</t>
   </si>
-  <si>
-    <t>SUMMARY OUTPUT</t>
-  </si>
-  <si>
-    <t>Regression Statistics</t>
-  </si>
-  <si>
-    <t>Multiple R</t>
-  </si>
-  <si>
-    <t>R Square</t>
-  </si>
-  <si>
-    <t>Adjusted R Square</t>
-  </si>
-  <si>
-    <t>Standard Error</t>
-  </si>
-  <si>
-    <t>Observations</t>
-  </si>
-  <si>
-    <t>ANOVA</t>
-  </si>
-  <si>
-    <t>Regression</t>
-  </si>
-  <si>
-    <t>Residual</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Intercept</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Significance F</t>
-  </si>
-  <si>
-    <t>Coefficients</t>
-  </si>
-  <si>
-    <t>t Stat</t>
-  </si>
-  <si>
-    <t>P-value</t>
-  </si>
-  <si>
-    <t>Lower 95%</t>
-  </si>
-  <si>
-    <t>Upper 95%</t>
-  </si>
-  <si>
-    <t>Lower 95.0%</t>
-  </si>
-  <si>
-    <t>Upper 95.0%</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +63,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -194,25 +132,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -514,13 +455,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B153"/>
+    <sheetView tabSelected="1" zoomScale="44" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,1885 +473,1755 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>4</v>
       </c>
       <c r="C2">
         <v>0.20937500000000001</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>9</v>
       </c>
       <c r="C3">
         <v>-2.9916666666666671E-2</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>12</v>
       </c>
       <c r="C4">
         <v>2.4999999999999931E-3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>0.94883720930232562</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>15</v>
       </c>
       <c r="C5">
         <v>-2.9916666666666671E-2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>17</v>
       </c>
       <c r="C6">
         <v>0.13863636363636361</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <v>0.92571428571428571</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>21</v>
       </c>
       <c r="C7">
         <v>0.4</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>0.52222222222222225</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>22</v>
       </c>
       <c r="C8">
         <v>0.1110294117647059</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>0.87222222222222223</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>23</v>
       </c>
       <c r="C9">
         <v>1.1485507246376821E-2</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>27</v>
       </c>
       <c r="C10">
         <v>2.043650793650794E-2</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <v>0.98571428571428577</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>28</v>
       </c>
       <c r="C11">
         <v>0.1229166666666667</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>31</v>
       </c>
       <c r="C12">
         <v>1.1485507246376821E-2</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>34</v>
       </c>
       <c r="C13">
         <v>9.7222222222222189E-3</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>38</v>
       </c>
       <c r="C14">
         <v>-2.5000000000000008E-2</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="6">
         <v>0.1951219512195122</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>40</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>45</v>
       </c>
       <c r="C16">
         <v>-4.1666666666666657E-3</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="6">
         <v>0.88888888888888884</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>56</v>
       </c>
       <c r="C17">
         <v>0.15</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="6">
         <v>0.9642857142857143</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>58</v>
       </c>
       <c r="C18">
         <v>-0.05</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="6">
         <v>0.8392857142857143</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>60</v>
       </c>
       <c r="C19">
         <v>-0.14583333333333329</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="6">
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>64</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="6">
         <v>0.82857142857142863</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>68</v>
       </c>
       <c r="C21">
         <v>-2.0952380952380951E-2</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="6">
         <v>0.79090909090909089</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>70</v>
       </c>
       <c r="C22">
         <v>0.17499999999999999</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="6">
         <v>0.99753694581280783</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>72</v>
       </c>
       <c r="C23">
         <v>0.1083333333333333</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>73</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>74</v>
       </c>
       <c r="C25">
         <v>0.5</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="6">
         <v>1.0263157894736841</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>75</v>
       </c>
       <c r="C26">
         <v>-2.715657552083332E-2</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>76</v>
       </c>
       <c r="C27">
         <v>0.15</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>77</v>
       </c>
       <c r="C28">
         <v>0.30399999999999999</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>78</v>
       </c>
       <c r="C29">
         <v>0.125</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>79</v>
       </c>
       <c r="C30">
         <v>3.7500000000000012E-2</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="6">
         <v>0.81770833333333337</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>81</v>
       </c>
       <c r="C31">
         <v>0.17499999999999999</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D31" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>83</v>
       </c>
       <c r="C32">
         <v>0.13595238095238099</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>87</v>
       </c>
       <c r="C33">
         <v>-0.1083333333333333</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D33" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>92</v>
       </c>
       <c r="C34">
         <v>-1.8421052631578949E-2</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>93</v>
       </c>
       <c r="C35">
         <v>0.16346153846153849</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>95</v>
       </c>
       <c r="C36">
         <v>0.125</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>100</v>
       </c>
       <c r="C37">
         <v>-0.17499999999999999</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="6">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>103</v>
       </c>
       <c r="C38">
         <v>0.25</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="6">
         <v>0.77142857142857146</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>105</v>
       </c>
       <c r="C39">
         <v>-6.5909090909090903E-2</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D39" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>108</v>
       </c>
       <c r="C40">
         <v>-1.007326007326007E-2</v>
       </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D40" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>112</v>
       </c>
       <c r="C41">
         <v>-4.4444444444444439E-2</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="6">
         <v>0.80487804878048785</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>115</v>
       </c>
       <c r="C42">
         <v>0.26</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="6">
         <v>0.25</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>120</v>
       </c>
       <c r="C43">
         <v>-4.1666666666666657E-2</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="6">
         <v>0.45</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>121</v>
       </c>
       <c r="C44">
         <v>-4.1666666666666657E-2</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="6">
         <v>0.7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>124</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D45" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>125</v>
       </c>
       <c r="C46">
         <v>0.5</v>
       </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D46" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>126</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>129</v>
       </c>
       <c r="C48">
         <v>0.43333333333333329</v>
       </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D48" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>132</v>
       </c>
       <c r="C49">
         <v>0.1675084175084175</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="6">
         <v>0.99270072992700731</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>133</v>
       </c>
       <c r="C50">
         <v>0.2045454545454545</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="6">
         <v>0.97333333333333338</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>134</v>
       </c>
       <c r="C51">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="6">
         <v>0.91176470588235292</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>135</v>
       </c>
       <c r="C52">
         <v>3.3333333333333361E-2</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="6">
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>137</v>
       </c>
       <c r="C53">
         <v>-7.9166666666666677E-2</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="6">
         <v>1.0105263157894739</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>138</v>
       </c>
       <c r="C54">
         <v>0.15</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="6">
         <v>0.9</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>142</v>
       </c>
       <c r="C55">
         <v>0.05</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="6">
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>143</v>
       </c>
       <c r="C56">
         <v>0.2166666666666667</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>144</v>
       </c>
       <c r="C57">
         <v>-0.14479166666666671</v>
       </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D57" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>147</v>
       </c>
       <c r="C58">
         <v>0.1</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="6">
         <v>0.96666666666666667</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>151</v>
       </c>
       <c r="C59">
         <v>-0.1</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>152</v>
       </c>
       <c r="C60">
         <v>-8.7499999999999994E-2</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>158</v>
       </c>
       <c r="C61">
         <v>5.7356459330143557E-2</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="6">
         <v>0.61111111111111116</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>159</v>
       </c>
       <c r="C62">
         <v>4.791666666666667E-2</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>162</v>
       </c>
       <c r="C63">
         <v>-2.8236914600551018E-3</v>
       </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D63" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>163</v>
       </c>
       <c r="C64">
         <v>-4.7222222222222228E-2</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="6">
         <v>1.044117647058824</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>164</v>
       </c>
       <c r="C65">
         <v>-4.7222222222222228E-2</v>
       </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D65" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>165</v>
       </c>
       <c r="C66">
         <v>-0.1</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="6">
         <v>0.952755905511811</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>172</v>
       </c>
       <c r="C67">
         <v>0.4</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="6">
         <v>1.02</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>173</v>
       </c>
       <c r="C68">
         <v>9.8278236914600553E-2</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="6">
         <v>1.1818181818181821</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>174</v>
       </c>
       <c r="C69">
         <v>0.155</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="6">
         <v>0.87692307692307692</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>176</v>
       </c>
       <c r="C70">
         <v>0.21111111111111111</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="6">
         <v>0.9375</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>177</v>
       </c>
       <c r="C71">
         <v>-0.13958333333333331</v>
       </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D71" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>179</v>
       </c>
       <c r="C72">
         <v>0.31666666666666671</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="6">
         <v>0.75</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>181</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>182</v>
       </c>
       <c r="C74">
         <v>8.8939393939393915E-2</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="6">
         <v>0.99230769230769234</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>183</v>
       </c>
       <c r="C75">
         <v>8.8939393939393915E-2</v>
       </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D75" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>184</v>
       </c>
       <c r="C76">
         <v>-0.1</v>
       </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D76" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>186</v>
       </c>
       <c r="C77">
         <v>-0.3</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="6">
         <v>0.9375</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>187</v>
       </c>
       <c r="C78">
         <v>0.1125</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="6">
         <v>0.625</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>188</v>
       </c>
       <c r="C79">
         <v>-2.6666666666666661E-2</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="6">
         <v>0.97674418604651159</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>189</v>
       </c>
       <c r="C80">
         <v>-8.3333333333333193E-3</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="6">
         <v>0.6</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>190</v>
       </c>
       <c r="C81">
         <v>-0.05</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="6">
         <v>0.05</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>191</v>
       </c>
       <c r="C82">
         <v>-0.05</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>193</v>
       </c>
       <c r="C83">
         <v>6.2499999999999993E-2</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="6">
         <v>0.61904761904761907</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>194</v>
       </c>
       <c r="C84">
         <v>-3.035714285714286E-2</v>
       </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D84" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>200</v>
       </c>
       <c r="C85">
         <v>0.1</v>
       </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D85" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>203</v>
       </c>
       <c r="C86">
         <v>9.999999999999995E-3</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="6">
         <v>0.8214285714285714</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>205</v>
       </c>
       <c r="C87">
         <v>0.31666666666666671</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="6">
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>212</v>
       </c>
       <c r="C88">
         <v>0.4</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="6">
         <v>0.51111111111111107</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>213</v>
       </c>
       <c r="C89">
         <v>-6.0937499999999999E-2</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="6">
         <v>0.16666666666666671</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>222</v>
       </c>
       <c r="C90">
         <v>0.125</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="6">
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>225</v>
       </c>
       <c r="C91">
         <v>4.3749999999999997E-2</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="6">
         <v>0.94444444444444442</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>227</v>
       </c>
       <c r="C92">
         <v>0.3</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="6">
         <v>0.88571428571428568</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>228</v>
       </c>
       <c r="C93">
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="6">
         <v>1.0071428571428569</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>229</v>
       </c>
       <c r="C94">
         <v>0.1553571428571428</v>
       </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D94" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>233</v>
       </c>
       <c r="C95">
         <v>0.1222222222222222</v>
       </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D95" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15" thickBot="1">
       <c r="A96">
         <v>237</v>
       </c>
       <c r="C96">
         <v>0.1</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="6">
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11">
       <c r="A97">
         <v>238</v>
       </c>
       <c r="C97">
         <v>9.7916666666666666E-2</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="6">
         <v>1.028571428571428</v>
       </c>
       <c r="I97" s="4"/>
-      <c r="J97" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K97" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98">
         <v>243</v>
       </c>
       <c r="C98">
         <v>0.1575</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="6">
         <v>1.1052631578947369</v>
       </c>
-      <c r="I98" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J98" s="2">
-        <v>1</v>
-      </c>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
       <c r="K98" s="2"/>
     </row>
-    <row r="99" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:11" ht="15" thickBot="1">
       <c r="A99">
         <v>244</v>
       </c>
       <c r="C99">
         <v>0.1119047619047619</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="6">
         <v>1.0666666666666671</v>
       </c>
-      <c r="I99" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J99" s="3">
-        <v>0.15930401463619834</v>
-      </c>
-      <c r="K99" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100">
         <v>245</v>
       </c>
       <c r="C100">
         <v>0.22954545454545461</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="6">
         <v>1.04</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11">
       <c r="A101">
         <v>246</v>
       </c>
       <c r="C101">
         <v>0.2440508021390374</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="6">
         <v>0.96666666666666667</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11">
       <c r="A102">
         <v>248</v>
       </c>
       <c r="C102">
         <v>0.20624999999999999</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="6">
         <v>0.85</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11">
       <c r="A103">
         <v>250</v>
       </c>
       <c r="C103">
         <v>0.1645833333333333</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="6">
         <v>0.91428571428571426</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11">
       <c r="A104">
         <v>251</v>
       </c>
       <c r="C104">
         <v>0.1645833333333333</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="6">
         <v>0.88888888888888884</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11">
       <c r="A105">
         <v>252</v>
       </c>
       <c r="C105">
         <v>-7.8125E-2</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="6">
         <v>0.16666666666666671</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11">
       <c r="A106">
         <v>255</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11">
       <c r="A107">
         <v>256</v>
       </c>
       <c r="C107">
         <v>5.8333333333333327E-2</v>
       </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D107" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108">
         <v>257</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="6">
         <v>0.125</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11">
       <c r="A109">
         <v>258</v>
       </c>
       <c r="C109">
         <v>0.25</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="6">
         <v>0.97826086956521741</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11">
       <c r="A110">
         <v>261</v>
       </c>
       <c r="C110">
         <v>-0.1</v>
       </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D110" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111">
         <v>262</v>
       </c>
       <c r="C111">
         <v>2.3333333333333341E-2</v>
       </c>
-      <c r="D111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D111" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112">
         <v>267</v>
       </c>
       <c r="C112">
         <v>-0.1</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="6">
         <v>0.72</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4">
       <c r="A113">
         <v>275</v>
       </c>
       <c r="C113">
         <v>7.499999999999998E-3</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="6">
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4">
       <c r="A114">
         <v>277</v>
       </c>
       <c r="C114">
         <v>-4.9166666666666671E-2</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="6">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4">
       <c r="A115">
         <v>281</v>
       </c>
       <c r="C115">
         <v>2.4999999999999991E-2</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="6">
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4">
       <c r="A116">
         <v>282</v>
       </c>
       <c r="C116">
         <v>-1.1363636363636369E-2</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4">
       <c r="A117">
         <v>285</v>
       </c>
       <c r="C117">
         <v>-0.19444444444444439</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="6">
         <v>0.625</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4">
       <c r="A118">
         <v>286</v>
       </c>
       <c r="C118">
         <v>-0.1</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="6">
         <v>0.76190476190476186</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4">
       <c r="A119">
         <v>287</v>
       </c>
       <c r="C119">
         <v>-0.31607142857142861</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="6">
         <v>1.4</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4">
       <c r="A120">
         <v>288</v>
       </c>
       <c r="C120">
         <v>0.11</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4">
       <c r="A121">
         <v>293</v>
       </c>
       <c r="C121">
         <v>-0.19791666666666671</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="6">
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4">
       <c r="A122">
         <v>297</v>
       </c>
       <c r="C122">
         <v>0.1</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="6">
         <v>0.76</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4">
       <c r="A123">
         <v>299</v>
       </c>
       <c r="C123">
         <v>0</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="6">
         <v>0.23333333333333331</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4">
       <c r="A124">
         <v>300</v>
       </c>
       <c r="C124">
         <v>-3.3333333333333333E-2</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="6">
         <v>0.1333333333333333</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4">
       <c r="A125">
         <v>301</v>
       </c>
       <c r="C125">
         <v>4.9999999999999989E-2</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="6">
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4">
       <c r="A126">
         <v>302</v>
       </c>
       <c r="C126">
         <v>0</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4">
       <c r="A127">
         <v>303</v>
       </c>
       <c r="C127">
         <v>6.8783068783068779E-2</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="6">
         <v>0.72</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4">
       <c r="A128">
         <v>305</v>
       </c>
       <c r="C128">
         <v>-1.111111111111111E-2</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="6">
         <v>1.083333333333333</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11">
       <c r="A129">
         <v>306</v>
       </c>
       <c r="C129">
         <v>-0.1166666666666667</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:11">
       <c r="A130">
         <v>309</v>
       </c>
       <c r="C130">
         <v>-0.1</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="6">
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:11">
       <c r="A131">
         <v>311</v>
       </c>
       <c r="C131">
         <v>-0.09</v>
       </c>
-      <c r="D131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D131" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132">
         <v>312</v>
       </c>
       <c r="C132">
         <v>-9.0848214285714296E-2</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="6">
         <v>0.72222222222222221</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:11">
       <c r="A133">
         <v>313</v>
       </c>
       <c r="C133">
         <v>-9.0848214285714296E-2</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="6">
         <v>0.52173913043478259</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11">
       <c r="A134">
         <v>314</v>
       </c>
       <c r="C134">
         <v>-9.0848214285714296E-2</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="6">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11">
       <c r="A135">
         <v>316</v>
       </c>
       <c r="C135">
         <v>-0.1</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11">
       <c r="A136">
         <v>317</v>
       </c>
       <c r="C136">
         <v>0.23333333333333339</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="6">
         <v>0.125</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:11">
       <c r="A137">
         <v>323</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="6">
         <v>0.88571428571428568</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:11">
       <c r="A138">
         <v>324</v>
       </c>
       <c r="C138">
         <v>-6.2500000000000003E-3</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="6">
         <v>0.47619047619047622</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:11">
       <c r="A139">
         <v>325</v>
       </c>
       <c r="C139">
         <v>-8.3333333333333329E-2</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="6">
         <v>0.42857142857142849</v>
       </c>
-      <c r="J139" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="140" spans="1:11" ht="15" thickBot="1">
       <c r="A140">
         <v>327</v>
       </c>
       <c r="C140">
         <v>-0.1075</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="6">
         <v>0.70666666666666667</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:11">
       <c r="A141">
         <v>330</v>
       </c>
       <c r="C141">
         <v>0.1</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="6">
         <v>0.5</v>
       </c>
-      <c r="J141" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="J141" s="5"/>
       <c r="K141" s="5"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:11">
       <c r="A142">
         <v>331</v>
       </c>
       <c r="C142">
         <v>-0.1166666666666667</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="6">
         <v>8.6956521739130432E-2</v>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K142" s="2">
-        <v>0.15930401463619773</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143">
         <v>335</v>
       </c>
       <c r="C143">
         <v>-6.5625000000000003E-2</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="6">
         <v>0.36363636363636359</v>
       </c>
-      <c r="J143" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K143" s="2">
-        <v>2.5377769079209897E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144">
         <v>338</v>
       </c>
       <c r="C144">
         <v>-3.4375000000000003E-2</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="6">
         <v>0.97499999999999998</v>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K144" s="2">
-        <v>1.8880287539737962E-2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+    </row>
+    <row r="145" spans="1:18">
       <c r="A145">
         <v>339</v>
       </c>
       <c r="C145">
         <v>-6.5625000000000003E-2</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="6">
         <v>0.8571428571428571</v>
       </c>
-      <c r="J145" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K145" s="2">
-        <v>0.3387193579572953</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+    </row>
+    <row r="146" spans="1:18" ht="15" thickBot="1">
       <c r="A146">
         <v>340</v>
       </c>
       <c r="C146">
         <v>-6.5625000000000003E-2</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="6">
         <v>0.8</v>
       </c>
-      <c r="J146" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K146" s="3">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="J146" s="3"/>
+      <c r="K146" s="3"/>
+    </row>
+    <row r="147" spans="1:18">
       <c r="A147">
         <v>343</v>
       </c>
       <c r="C147">
         <v>-7.8125E-2</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:18" ht="15" thickBot="1">
       <c r="A148">
         <v>344</v>
       </c>
       <c r="C148">
         <v>-3.3333333333333333E-2</v>
       </c>
-      <c r="D148">
-        <v>1</v>
-      </c>
-      <c r="J148" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D148" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18">
       <c r="A149">
         <v>345</v>
       </c>
       <c r="C149">
         <v>-5.000000000000001E-2</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="6">
         <v>1</v>
       </c>
       <c r="J149" s="4"/>
-      <c r="K149" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L149" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M149" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N149" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O149" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="K149" s="4"/>
+      <c r="L149" s="4"/>
+      <c r="M149" s="4"/>
+      <c r="N149" s="4"/>
+      <c r="O149" s="4"/>
+    </row>
+    <row r="150" spans="1:18">
       <c r="A150">
         <v>346</v>
       </c>
       <c r="C150">
         <v>-8.7499999999999994E-2</v>
       </c>
-      <c r="D150">
-        <v>1</v>
-      </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2">
-        <v>1</v>
-      </c>
-      <c r="L150" s="2">
-        <v>0.44811390669836371</v>
-      </c>
-      <c r="M150" s="2">
-        <v>0.44811390669836371</v>
-      </c>
-      <c r="N150" s="2">
-        <v>3.9057854839665169</v>
-      </c>
-      <c r="O150" s="2">
-        <v>4.9954150569931126E-2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D150" s="6">
+        <v>1</v>
+      </c>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2"/>
+      <c r="N150" s="2"/>
+      <c r="O150" s="2"/>
+    </row>
+    <row r="151" spans="1:18">
       <c r="A151">
         <v>347</v>
       </c>
       <c r="C151">
         <v>-0.1083333333333333</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="6">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J151" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K151" s="2">
-        <v>150</v>
-      </c>
-      <c r="L151" s="2">
-        <v>17.209620518250354</v>
-      </c>
-      <c r="M151" s="2">
-        <v>0.11473080345500236</v>
-      </c>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+      <c r="L151" s="2"/>
+      <c r="M151" s="2"/>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
     </row>
-    <row r="152" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:18" ht="15" thickBot="1">
       <c r="A152">
         <v>348</v>
       </c>
       <c r="C152">
         <v>2.4999999999999991E-2</v>
       </c>
-      <c r="D152">
-        <v>1</v>
-      </c>
-      <c r="J152" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K152" s="3">
-        <v>151</v>
-      </c>
-      <c r="L152" s="3">
-        <v>17.657734424948718</v>
-      </c>
+      <c r="D152" s="6">
+        <v>1</v>
+      </c>
+      <c r="J152" s="3"/>
+      <c r="K152" s="3"/>
+      <c r="L152" s="3"/>
       <c r="M152" s="3"/>
       <c r="N152" s="3"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:18" ht="15" thickBot="1">
       <c r="A153">
         <v>353</v>
       </c>
       <c r="C153">
         <v>0.17499999999999999</v>
       </c>
-      <c r="D153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D153" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18">
       <c r="J154" s="4"/>
-      <c r="K154" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L154" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M154" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N154" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O154" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P154" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q154" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="R154" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="J155" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K155" s="2">
-        <v>0.74016644626923267</v>
-      </c>
-      <c r="L155" s="2">
-        <v>2.8751599013350289E-2</v>
-      </c>
-      <c r="M155" s="2">
-        <v>25.743488072630313</v>
-      </c>
-      <c r="N155" s="2">
-        <v>6.5738073504415509E-57</v>
-      </c>
-      <c r="O155" s="2">
-        <v>0.68335600850695188</v>
-      </c>
-      <c r="P155" s="2">
-        <v>0.79697688403151346</v>
-      </c>
-      <c r="Q155" s="2">
-        <v>0.68335600850695188</v>
-      </c>
-      <c r="R155" s="2">
-        <v>0.79697688403151346</v>
-      </c>
-    </row>
-    <row r="156" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J156" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K156" s="3">
-        <v>0.36448144078815076</v>
-      </c>
-      <c r="L156" s="3">
-        <v>0.18442560875355962</v>
-      </c>
-      <c r="M156" s="3">
-        <v>1.9763060198174125</v>
-      </c>
-      <c r="N156" s="3">
-        <v>4.9954150569930141E-2</v>
-      </c>
-      <c r="O156" s="3">
-        <v>7.389729813800372E-5</v>
-      </c>
-      <c r="P156" s="3">
-        <v>0.72888898427816351</v>
-      </c>
-      <c r="Q156" s="3">
-        <v>7.389729813800372E-5</v>
-      </c>
-      <c r="R156" s="3">
-        <v>0.72888898427816351</v>
-      </c>
+      <c r="K154" s="4"/>
+      <c r="L154" s="4"/>
+      <c r="M154" s="4"/>
+      <c r="N154" s="4"/>
+      <c r="O154" s="4"/>
+      <c r="P154" s="4"/>
+      <c r="Q154" s="4"/>
+      <c r="R154" s="4"/>
+    </row>
+    <row r="155" spans="1:18">
+      <c r="J155" s="2"/>
+      <c r="K155" s="2"/>
+      <c r="L155" s="2"/>
+      <c r="M155" s="2"/>
+      <c r="N155" s="2"/>
+      <c r="O155" s="2"/>
+      <c r="P155" s="2"/>
+      <c r="Q155" s="2"/>
+      <c r="R155" s="2"/>
+    </row>
+    <row r="156" spans="1:18" ht="15" thickBot="1">
+      <c r="J156" s="3"/>
+      <c r="K156" s="3"/>
+      <c r="L156" s="3"/>
+      <c r="M156" s="3"/>
+      <c r="N156" s="3"/>
+      <c r="O156" s="3"/>
+      <c r="P156" s="3"/>
+      <c r="Q156" s="3"/>
+      <c r="R156" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
